--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 12-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 12-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A636FA3-612D-447B-9B5A-3AAF29282D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB961299-F5C3-447E-B90E-86BA14C9A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>6.0686442949805408E-2</v>
+        <v>6.0686446349930367E-2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>6.0686442949805408E-2</v>
+        <v>6.0686446349930367E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2311,11 +2311,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>0.93933311356008209</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.93933311356008209</v>
       </c>
       <c r="J7" s="1">
@@ -2327,7 +2327,7 @@
         <v>6.0666886439917911E-2</v>
       </c>
       <c r="L7" s="1">
-        <f>F7*J7</f>
+        <f t="shared" ref="L7:L13" si="2">F7*J7</f>
         <v>0</v>
       </c>
       <c r="M7" s="1">
@@ -2335,7 +2335,7 @@
         <v>0.93933311356008209</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
+        <f t="shared" ref="N7:N13" si="3">F7*K7</f>
         <v>0</v>
       </c>
       <c r="O7" s="1">
@@ -2360,35 +2360,35 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>0.99999625083543664</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>0.99999625083543664</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J13" si="0">1-H8</f>
+        <f t="shared" ref="J8:J13" si="4">1-H8</f>
         <v>3.7491645633602744E-6</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K13" si="1">1-I8</f>
+        <f t="shared" ref="K8:K13" si="5">1-I8</f>
         <v>3.7491645633602744E-6</v>
       </c>
       <c r="L8" s="1">
-        <f>F8*J8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M13" si="2">1-(1-F8)*J8</f>
+        <f t="shared" ref="M8:M13" si="6">1-(1-F8)*J8</f>
         <v>0.99999625083543664</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="3">1-(1-F8)*K8</f>
+        <f t="shared" ref="O8:O13" si="7">1-(1-F8)*K8</f>
         <v>0.99999625083543664</v>
       </c>
     </row>
@@ -2406,39 +2406,39 @@
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
+        <f t="shared" si="0"/>
         <v>0.99999554325999995</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
+        <f t="shared" si="1"/>
         <v>0.99999554325999995</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.4567400000472546E-6</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.4567400000472546E-6</v>
       </c>
       <c r="L9" s="1">
-        <f>F9*J9</f>
-        <v>4.4567400000472546E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999554325999995</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
-        <v>4.4567400000472546E-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0.99999554325999995</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2458,35 +2458,35 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>F10*J10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -2507,35 +2507,35 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>0.9999886413605209</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
+        <f t="shared" si="1"/>
         <v>0.9999886413605209</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1358639479097654E-5</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1358639479097654E-5</v>
       </c>
       <c r="L11" s="1">
-        <f>F11*J11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9999886413605209</v>
       </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9999886413605209</v>
       </c>
     </row>
@@ -2553,39 +2553,39 @@
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
+        <f t="shared" si="0"/>
         <v>0.99999999638020232</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999638020232</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.6197976838181489E-9</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.6197976838181489E-9</v>
       </c>
       <c r="L12" s="1">
-        <f>F12*J12</f>
-        <v>3.6197976838181489E-9</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999999638020232</v>
       </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
-        <v>3.6197976838181489E-9</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999638020232</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2605,35 +2605,35 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
+        <f t="shared" si="0"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
+        <f t="shared" si="1"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2551587023068578E-6</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2551587023068578E-6</v>
       </c>
       <c r="L13" s="1">
-        <f>F13*J13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99999874484129769</v>
       </c>
     </row>
@@ -2655,11 +2655,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>4.4567400000472546E-6</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>4.4567400000472546E-6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 12-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 12-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB961299-F5C3-447E-B90E-86BA14C9A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B0C2D-3DCE-4954-BB81-4632A2E6BC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2188,7 +2188,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>6.0686446349930367E-2</v>
+        <v>6.0686442949805408E-2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>6.0686446349930367E-2</v>
+        <v>6.0686442949805408E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -2426,19 +2426,19 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4567400000472546E-6</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999554325999995</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.4567400000472546E-6</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="7"/>
-        <v>0.99999554325999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
@@ -2573,19 +2573,19 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6197976838181489E-9</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999999638020232</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.6197976838181489E-9</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="7"/>
-        <v>0.99999999638020232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2655,11 +2655,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>0</v>
+        <v>4.4567400000472546E-6</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0</v>
+        <v>4.4567400000472546E-6</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 12-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 12-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Deltabox\Postbox\Wojciechowska, Karolina\vanRobert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA82F2-A12E-4B21-8410-C1D301E4E8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C626FB-4728-42D2-A409-FA59B68DAB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>6.0686442949805408E-2</v>
+        <v>5.9000332847280457E-2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>6.0686442949805408E-2</v>
+        <v>5.9000332847280457E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="C7" s="29">
         <f>STPH!C7</f>
-        <v>6.0666886439917911E-2</v>
+        <v>5.8981167599299229E-2</v>
       </c>
       <c r="D7" s="25">
         <f>STPH!C8</f>
-        <v>6.0666886439917911E-2</v>
+        <v>5.8981167599299229E-2</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="23" t="str">
@@ -2313,19 +2313,19 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
-        <v>0.93933311356008209</v>
+        <v>0.94101883240070072</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
-        <v>0.93933311356008209</v>
+        <v>0.94101883240070072</v>
       </c>
       <c r="J7" s="1">
         <f>1-H7</f>
-        <v>6.0666886439917911E-2</v>
+        <v>5.8981167599299278E-2</v>
       </c>
       <c r="K7" s="1">
         <f>1-I7</f>
-        <v>6.0666886439917911E-2</v>
+        <v>5.8981167599299278E-2</v>
       </c>
       <c r="L7" s="1">
         <f>IF(F7="Ja",1,0)*J7</f>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="M7" s="1">
         <f>1-(1-IF(F7="Ja",1,0))*J7</f>
-        <v>0.93933311356008209</v>
+        <v>0.94101883240070072</v>
       </c>
       <c r="N7" s="1">
         <f>IF(F7="Ja",1,0)*K7</f>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O7" s="1">
         <f>1-(1-IF(F7="Ja",1,0))*K7</f>
-        <v>0.93933311356008209</v>
+        <v>0.94101883240070072</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="C8" s="31">
         <f>STBI!C7</f>
-        <v>3.7491645633602744E-6</v>
+        <v>3.2960757320282322E-6</v>
       </c>
       <c r="D8" s="26">
         <f>STBI!C8</f>
-        <v>3.7491645633602744E-6</v>
+        <v>3.2960757320282322E-6</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49" t="str">
@@ -2363,19 +2363,19 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.99999625083543664</v>
+        <v>0.99999670392426798</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0.99999625083543664</v>
+        <v>0.99999670392426798</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J13" si="2">1-H8</f>
-        <v>3.7491645633602744E-6</v>
+        <v>3.2960757320177336E-6</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ref="K8:K13" si="3">1-I8</f>
-        <v>3.7491645633602744E-6</v>
+        <v>3.2960757320177336E-6</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:L13" si="4">IF(F8="Ja",1,0)*J8</f>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ref="M8:M13" si="5">1-(1-IF(F8="Ja",1,0))*J8</f>
-        <v>0.99999625083543664</v>
+        <v>0.99999670392426798</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ref="N8:N13" si="6">IF(F8="Ja",1,0)*K8</f>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8:O13" si="7">1-(1-IF(F8="Ja",1,0))*K8</f>
-        <v>0.99999625083543664</v>
+        <v>0.99999670392426798</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -11986,23 +11986,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G76">
-    <cfRule type="expression" dxfId="59" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I76">
-    <cfRule type="expression" dxfId="58" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K76">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12101,7 +12101,7 @@
   <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12141,7 +12141,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="7">
-        <v>28.9</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -12157,7 +12157,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -12174,7 +12174,7 @@
       </c>
       <c r="C7" s="26">
         <f>IFERROR(IF(C5="P1",1-PRODUCT(Q16:Q35),MAX(S16:S35)),"GR")</f>
-        <v>6.0666886439917911E-2</v>
+        <v>5.8981167599299229E-2</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C8" s="26">
         <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
-        <v>6.0666886439917911E-2</v>
+        <v>5.8981167599299229E-2</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -12357,11 +12357,11 @@
       </c>
       <c r="S16" s="10">
         <f>IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
-        <v>7.6331610640396367E-3</v>
+        <v>5.8107108445976476E-4</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" ref="T16" si="5">IF(L16="-",0,S16)</f>
-        <v>7.6331610640396367E-3</v>
+        <v>5.8107108445976476E-4</v>
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12441,11 +12441,11 @@
       </c>
       <c r="S17" s="10">
         <f t="shared" ref="S17:S35" si="9">IF(AND(F17="Geen faalkans",I17="Nee"),0,L17*$C$3)</f>
-        <v>0.77479806528170336</v>
+        <v>5.8981167599299229E-2</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" ref="T17:T35" si="10">IF(L17="-",0,S17)</f>
-        <v>0.77479806528170336</v>
+        <v>5.8981167599299229E-2</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12525,11 +12525,11 @@
       </c>
       <c r="S18" s="10">
         <f t="shared" si="9"/>
-        <v>1.6250146500510961E-8</v>
+        <v>1.2370353737413188E-9</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="10"/>
-        <v>1.6250146500510961E-8</v>
+        <v>1.2370353737413188E-9</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12609,11 +12609,11 @@
       </c>
       <c r="S19" s="10">
         <f t="shared" si="9"/>
-        <v>6.46973349652144E-5</v>
+        <v>4.9250566409505784E-6</v>
       </c>
       <c r="T19" s="10">
         <f t="shared" si="10"/>
-        <v>6.46973349652144E-5</v>
+        <v>4.9250566409505784E-6</v>
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12693,11 +12693,11 @@
       </c>
       <c r="S20" s="10">
         <f t="shared" si="9"/>
-        <v>1.3004388689084757E-3</v>
+        <v>9.899534642209851E-5</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="10"/>
-        <v>1.3004388689084757E-3</v>
+        <v>9.899534642209851E-5</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12777,11 +12777,11 @@
       </c>
       <c r="S21" s="10">
         <f t="shared" si="9"/>
-        <v>7.8633480097721185E-5</v>
+        <v>5.9859396614182229E-6</v>
       </c>
       <c r="T21" s="10">
         <f t="shared" si="10"/>
-        <v>7.8633480097721185E-5</v>
+        <v>5.9859396614182229E-6</v>
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12861,11 +12861,11 @@
       </c>
       <c r="S22" s="10">
         <f t="shared" si="9"/>
-        <v>1.3286611137412056E-2</v>
+        <v>1.0114375260313676E-3</v>
       </c>
       <c r="T22" s="10">
         <f t="shared" si="10"/>
-        <v>1.3286611137412056E-2</v>
+        <v>1.0114375260313676E-3</v>
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -12945,11 +12945,11 @@
       </c>
       <c r="S23" s="10">
         <f t="shared" si="9"/>
-        <v>3.6510507997090644E-2</v>
+        <v>2.7793466295363122E-3</v>
       </c>
       <c r="T23" s="10">
         <f t="shared" si="10"/>
-        <v>3.6510507997090644E-2</v>
+        <v>2.7793466295363122E-3</v>
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13029,11 +13029,11 @@
       </c>
       <c r="S24" s="10">
         <f t="shared" si="9"/>
-        <v>2.8977504080749821E-2</v>
+        <v>2.2058999646245542E-3</v>
       </c>
       <c r="T24" s="10">
         <f t="shared" si="10"/>
-        <v>2.8977504080749821E-2</v>
+        <v>2.2058999646245542E-3</v>
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13113,11 +13113,11 @@
       </c>
       <c r="S25" s="10">
         <f t="shared" si="9"/>
-        <v>1.3781595983453085E-2</v>
+        <v>1.0491180333424496E-3</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" si="10"/>
-        <v>1.3781595983453085E-2</v>
+        <v>1.0491180333424496E-3</v>
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13197,11 +13197,11 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="9"/>
-        <v>1.6450136163581258E-5</v>
+        <v>1.252259500341826E-6</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="10"/>
-        <v>1.6450136163581258E-5</v>
+        <v>1.252259500341826E-6</v>
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13281,11 +13281,11 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="9"/>
-        <v>9.4748084381213148E-16</v>
+        <v>7.2126569425144956E-17</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="10"/>
-        <v>9.4748084381213148E-16</v>
+        <v>7.2126569425144956E-17</v>
       </c>
       <c r="U27" s="9">
         <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13365,11 +13365,11 @@
       </c>
       <c r="S28" s="10">
         <f t="shared" si="9"/>
-        <v>1.7685582405178337E-2</v>
+        <v>1.3463073111208423E-3</v>
       </c>
       <c r="T28" s="10">
         <f t="shared" si="10"/>
-        <v>1.7685582405178337E-2</v>
+        <v>1.3463073111208423E-3</v>
       </c>
       <c r="U28" s="9">
         <f t="array" ref="U28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13449,11 +13449,11 @@
       </c>
       <c r="S29" s="10">
         <f t="shared" si="9"/>
-        <v>4.0913651000168017E-3</v>
+        <v>3.11453398617196E-4</v>
       </c>
       <c r="T29" s="10">
         <f t="shared" si="10"/>
-        <v>4.0913651000168017E-3</v>
+        <v>3.11453398617196E-4</v>
       </c>
       <c r="U29" s="9">
         <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13533,11 +13533,11 @@
       </c>
       <c r="S30" s="10">
         <f t="shared" si="9"/>
-        <v>6.7379913700956386E-3</v>
+        <v>5.1292667869240168E-4</v>
       </c>
       <c r="T30" s="10">
         <f t="shared" si="10"/>
-        <v>6.7379913700956386E-3</v>
+        <v>5.1292667869240168E-4</v>
       </c>
       <c r="U30" s="9">
         <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13617,11 +13617,11 @@
       </c>
       <c r="S31" s="10">
         <f t="shared" si="9"/>
-        <v>1.8422068221222692E-3</v>
+        <v>1.4023719753179906E-4</v>
       </c>
       <c r="T31" s="10">
         <f t="shared" si="10"/>
-        <v>1.8422068221222692E-3</v>
+        <v>1.4023719753179906E-4</v>
       </c>
       <c r="U31" s="9">
         <f t="array" ref="U31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13701,11 +13701,11 @@
       </c>
       <c r="S32" s="10">
         <f t="shared" si="9"/>
-        <v>1.3653297016375527E-3</v>
+        <v>1.0393513299663032E-4</v>
       </c>
       <c r="T32" s="10">
         <f t="shared" si="10"/>
-        <v>1.3653297016375527E-3</v>
+        <v>1.0393513299663032E-4</v>
       </c>
       <c r="U32" s="9">
         <f t="array" ref="U32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13785,11 +13785,11 @@
       </c>
       <c r="S33" s="10">
         <f t="shared" si="9"/>
-        <v>0.18850688986351519</v>
+        <v>1.4350005456738183E-2</v>
       </c>
       <c r="T33" s="10">
         <f t="shared" si="10"/>
-        <v>0.18850688986351519</v>
+        <v>1.4350005456738183E-2</v>
       </c>
       <c r="U33" s="9">
         <f t="array" ref="U33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13869,11 +13869,11 @@
       </c>
       <c r="S34" s="10">
         <f t="shared" si="9"/>
-        <v>1.5860427628608081E-6</v>
+        <v>1.2073681931812383E-7</v>
       </c>
       <c r="T34" s="10">
         <f t="shared" si="10"/>
-        <v>1.5860427628608081E-6</v>
+        <v>1.2073681931812383E-7</v>
       </c>
       <c r="U34" s="9">
         <f t="array" ref="U34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13953,11 +13953,11 @@
       </c>
       <c r="S35" s="15">
         <f t="shared" si="9"/>
-        <v>1.1557802901420038E-7</v>
+        <v>8.798327468209026E-9</v>
       </c>
       <c r="T35" s="15">
         <f t="shared" si="10"/>
-        <v>1.1557802901420038E-7</v>
+        <v>8.798327468209026E-9</v>
       </c>
       <c r="U35" s="14">
         <f t="array" ref="U35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -13992,23 +13992,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:H35">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K35">
-    <cfRule type="expression" dxfId="80" priority="10">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>IF($I16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O35">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14106,8 +14106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
   <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14144,7 +14144,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="7">
-        <v>14.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -14160,7 +14160,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14177,7 +14177,7 @@
       </c>
       <c r="C7" s="26">
         <f>IFERROR(IF(C5="P1",1-PRODUCT(Q16:Q35),MAX(S16:S35)),"GR")</f>
-        <v>3.7491645633602744E-6</v>
+        <v>3.2960757320282322E-6</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="C8" s="26">
         <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
-        <v>3.7491645633602744E-6</v>
+        <v>3.2960757320282322E-6</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -14360,11 +14360,11 @@
       </c>
       <c r="S16" s="10">
         <f t="shared" ref="S16" si="5">IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
-        <v>3.8776000000000003E-7</v>
+        <v>1.572E-7</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" ref="T16" si="6">IF(L16="-",0,S16)</f>
-        <v>3.8776000000000003E-7</v>
+        <v>1.572E-7</v>
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14444,11 +14444,11 @@
       </c>
       <c r="S17" s="10">
         <f t="shared" ref="S17:S31" si="10">IF(AND(F17="Geen faalkans",I17="Nee"),0,L17*$C$3)</f>
-        <v>1.32312E-7</v>
+        <v>5.3639999999999996E-8</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" ref="T17:T31" si="11">IF(L17="-",0,S17)</f>
-        <v>1.32312E-7</v>
+        <v>5.3639999999999996E-8</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14528,11 +14528,11 @@
       </c>
       <c r="S18" s="10">
         <f t="shared" si="10"/>
-        <v>2.22E-23</v>
+        <v>8.9999999999999995E-24</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="11"/>
-        <v>2.22E-23</v>
+        <v>8.9999999999999995E-24</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14612,11 +14612,11 @@
       </c>
       <c r="S19" s="10">
         <f t="shared" si="10"/>
-        <v>1.32312E-7</v>
+        <v>5.3639999999999996E-8</v>
       </c>
       <c r="T19" s="10">
         <f t="shared" si="11"/>
-        <v>1.32312E-7</v>
+        <v>5.3639999999999996E-8</v>
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14696,11 +14696,11 @@
       </c>
       <c r="S20" s="10">
         <f t="shared" si="10"/>
-        <v>1.1011200000000001E-6</v>
+        <v>4.4640000000000003E-7</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="11"/>
-        <v>1.1011200000000001E-6</v>
+        <v>4.4640000000000003E-7</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14780,11 +14780,11 @@
       </c>
       <c r="S21" s="10">
         <f t="shared" si="10"/>
-        <v>6.4703948691099082E-9</v>
+        <v>2.6231330550445572E-9</v>
       </c>
       <c r="T21" s="10">
         <f t="shared" si="11"/>
-        <v>6.4703948691099082E-9</v>
+        <v>2.6231330550445572E-9</v>
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14864,11 +14864,11 @@
       </c>
       <c r="S22" s="10">
         <f t="shared" si="10"/>
-        <v>7.9772000000000005E-6</v>
+        <v>3.2340000000000003E-6</v>
       </c>
       <c r="T22" s="10">
         <f t="shared" si="11"/>
-        <v>7.9772000000000005E-6</v>
+        <v>3.2340000000000003E-6</v>
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -14948,11 +14948,11 @@
       </c>
       <c r="S23" s="10">
         <f t="shared" si="10"/>
-        <v>3.8776000000000003E-7</v>
+        <v>1.572E-7</v>
       </c>
       <c r="T23" s="10">
         <f t="shared" si="11"/>
-        <v>3.8776000000000003E-7</v>
+        <v>1.572E-7</v>
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15032,11 +15032,11 @@
       </c>
       <c r="S24" s="10">
         <f t="shared" si="10"/>
-        <v>4.0802905928606341E-19</v>
+        <v>1.6541718619705272E-19</v>
       </c>
       <c r="T24" s="10">
         <f t="shared" si="11"/>
-        <v>4.0802905928606341E-19</v>
+        <v>1.6541718619705272E-19</v>
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15116,11 +15116,11 @@
       </c>
       <c r="S25" s="10">
         <f t="shared" si="10"/>
-        <v>4.3512000000000006E-8</v>
+        <v>1.7640000000000001E-8</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" si="11"/>
-        <v>4.3512000000000006E-8</v>
+        <v>1.7640000000000001E-8</v>
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15200,11 +15200,11 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="10"/>
-        <v>2.8265142438444017E-6</v>
+        <v>1.1458841529098925E-6</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="11"/>
-        <v>2.8265142438444017E-6</v>
+        <v>1.1458841529098925E-6</v>
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15284,11 +15284,11 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="10"/>
-        <v>8.1303201390029725E-6</v>
+        <v>3.2960757320282322E-6</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="11"/>
-        <v>8.1303201390029725E-6</v>
+        <v>3.2960757320282322E-6</v>
       </c>
       <c r="U27" s="9">
         <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15368,11 +15368,11 @@
       </c>
       <c r="S28" s="10">
         <f t="shared" si="10"/>
-        <v>7.5332000000000004E-10</v>
+        <v>3.054E-10</v>
       </c>
       <c r="T28" s="10">
         <f t="shared" si="11"/>
-        <v>7.5332000000000004E-10</v>
+        <v>3.054E-10</v>
       </c>
       <c r="U28" s="9">
         <f t="array" ref="U28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15452,11 +15452,11 @@
       </c>
       <c r="S29" s="10">
         <f t="shared" si="10"/>
-        <v>2.9747999999999999E-8</v>
+        <v>1.206E-8</v>
       </c>
       <c r="T29" s="10">
         <f t="shared" si="11"/>
-        <v>2.9747999999999999E-8</v>
+        <v>1.206E-8</v>
       </c>
       <c r="U29" s="9">
         <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15536,11 +15536,11 @@
       </c>
       <c r="S30" s="10">
         <f t="shared" si="10"/>
-        <v>8.1222951177646932E-7</v>
+        <v>3.2928223450397401E-7</v>
       </c>
       <c r="T30" s="10">
         <f t="shared" si="11"/>
-        <v>8.1222951177646932E-7</v>
+        <v>3.2928223450397401E-7</v>
       </c>
       <c r="U30" s="9">
         <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15620,11 +15620,11 @@
       </c>
       <c r="S31" s="10">
         <f t="shared" si="10"/>
-        <v>1.3849634529905494E-6</v>
+        <v>5.6147167013130385E-7</v>
       </c>
       <c r="T31" s="10">
         <f t="shared" si="11"/>
-        <v>1.3849634529905494E-6</v>
+        <v>5.6147167013130385E-7</v>
       </c>
       <c r="U31" s="9">
         <f t="array" ref="U31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -15763,23 +15763,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:H35">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="59" priority="11">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K35">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>IF($I16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O35">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
